--- a/lota_xin/xls/equipLv.xlsx
+++ b/lota_xin/xls/equipLv.xlsx
@@ -28,7 +28,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "LV", "size" : 32}</t>
+          <t xml:space="preserve">{"type":"int32", "name" : "LV"}</t>
         </r>
       </text>
     </comment>
@@ -41,7 +41,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "Attack01", "size" : 32}</t>
+          <t xml:space="preserve">{"type":"int32", "name" : "Attack01"}</t>
         </r>
       </text>
     </comment>
@@ -54,7 +54,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "Attack02", "size" : 32}</t>
+          <t xml:space="preserve">{"type":"int32", "name" : "Attack02"}</t>
         </r>
       </text>
     </comment>
@@ -67,7 +67,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "Attack03", "size" : 32}</t>
+          <t xml:space="preserve">{"type":"int32", "name" : "Attack03"}</t>
         </r>
       </text>
     </comment>
@@ -80,7 +80,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "Attack04", "size" : 32}</t>
+          <t xml:space="preserve">{"type":"int32", "name" : "Attack04"}</t>
         </r>
       </text>
     </comment>
@@ -106,7 +106,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "Attack06", "size" : 32}</t>
+          <t xml:space="preserve">{"type":"int32", "name" : "Attack06"}</t>
         </r>
       </text>
     </comment>
@@ -119,7 +119,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "Attack07", "size" : 32}</t>
+          <t xml:space="preserve">{"type":"int32", "name" : "Attack07"}</t>
         </r>
       </text>
     </comment>
@@ -132,7 +132,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "Attack08", "size" : 32}</t>
+          <t xml:space="preserve">{"type":"int32", "name" : "Attack08"}</t>
         </r>
       </text>
     </comment>
@@ -145,7 +145,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "Attack09", "size" : 32}</t>
+          <t xml:space="preserve">{"type":"int32", "name" : "Attack09"}</t>
         </r>
       </text>
     </comment>
@@ -158,7 +158,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "Attack10", "size" : 32}</t>
+          <t xml:space="preserve">{"type":"int32", "name" : "Attack10"}</t>
         </r>
       </text>
     </comment>
@@ -171,7 +171,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "Crit01", "size" : 32}</t>
+          <t xml:space="preserve">{"type":"int32", "name" : "Crit01"}</t>
         </r>
       </text>
     </comment>
@@ -184,7 +184,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "Crit02", "size" : 32}</t>
+          <t xml:space="preserve">{"type":"int32", "name" : "Crit02"}</t>
         </r>
       </text>
     </comment>
@@ -197,7 +197,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "Crit03", "size" : 32}</t>
+          <t xml:space="preserve">{"type":"int32", "name" : "Crit03"}</t>
         </r>
       </text>
     </comment>
@@ -210,7 +210,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "Crit04", "size" : 32}</t>
+          <t xml:space="preserve">{"type":"int32", "name" : "Crit04"}</t>
         </r>
       </text>
     </comment>
@@ -223,7 +223,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "Crit05", "size" : 32}</t>
+          <t xml:space="preserve">{"type":"int32", "name" : "Crit05"}</t>
         </r>
       </text>
     </comment>
@@ -236,7 +236,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "Crit06", "size" : 32}</t>
+          <t xml:space="preserve">{"type":"int32", "name" : "Crit06"}</t>
         </r>
       </text>
     </comment>
@@ -249,7 +249,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "Crit07", "size" : 32}</t>
+          <t xml:space="preserve">{"type":"int32", "name" : "Crit07"}</t>
         </r>
       </text>
     </comment>
@@ -262,7 +262,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "Crit08", "size" : 32}</t>
+          <t xml:space="preserve">{"type":"int32", "name" : "Crit08"}</t>
         </r>
       </text>
     </comment>
@@ -275,7 +275,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "Crit09", "size" : 32}</t>
+          <t xml:space="preserve">{"type":"int32", "name" : "Crit09"}</t>
         </r>
       </text>
     </comment>
@@ -288,7 +288,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "Crit10", "size" : 32}</t>
+          <t xml:space="preserve">{"type":"int32", "name" : "Crit10"}</t>
         </r>
       </text>
     </comment>
@@ -301,7 +301,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "Speed01", "size" : 32}</t>
+          <t xml:space="preserve">{"type":"int32", "name" : "Speed01"}</t>
         </r>
       </text>
     </comment>
@@ -314,7 +314,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "Speed02", "size" : 32}</t>
+          <t xml:space="preserve">{"type":"int32", "name" : "Speed02"}</t>
         </r>
       </text>
     </comment>
@@ -327,7 +327,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "Speed03", "size" : 32}</t>
+          <t xml:space="preserve">{"type":"int32", "name" : "Speed03"}</t>
         </r>
       </text>
     </comment>
@@ -340,7 +340,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "Speed04", "size" : 32}</t>
+          <t xml:space="preserve">{"type":"int32", "name" : "Speed04"}</t>
         </r>
       </text>
     </comment>
@@ -353,7 +353,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "Speed05", "size" : 32}</t>
+          <t xml:space="preserve">{"type":"int32", "name" : "Speed05"}</t>
         </r>
       </text>
     </comment>
@@ -366,7 +366,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "Speed06", "size" : 32}</t>
+          <t xml:space="preserve">{"type":"int32", "name" : "Speed06"}</t>
         </r>
       </text>
     </comment>
@@ -379,7 +379,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "Speed07", "size" : 32}</t>
+          <t xml:space="preserve">{"type":"int32", "name" : "Speed07"}</t>
         </r>
       </text>
     </comment>
@@ -392,7 +392,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "Speed08", "size" : 32}</t>
+          <t xml:space="preserve">{"type":"int32", "name" : "Speed08"}</t>
         </r>
       </text>
     </comment>
@@ -405,7 +405,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "Speed09", "size" : 32}</t>
+          <t xml:space="preserve">{"type":"int32", "name" : "Speed09"}</t>
         </r>
       </text>
     </comment>
@@ -418,7 +418,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "Speed10", "size" : 32}</t>
+          <t xml:space="preserve">{"type":"int32", "name" : "Speed10"}</t>
         </r>
       </text>
     </comment>
@@ -531,9 +531,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -551,8 +551,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -560,7 +583,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -581,46 +657,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -633,60 +687,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -697,133 +697,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,49 +877,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,11 +891,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -928,22 +949,27 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -962,32 +988,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -996,145 +996,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1462,8 +1462,8 @@
   <sheetPr/>
   <dimension ref="A1:AE12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="$A13:$XFD645"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/lota_xin/xls/equipLv.xlsx
+++ b/lota_xin/xls/equipLv.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18855" windowHeight="8475"/>
+    <workbookView windowWidth="21495" windowHeight="8685"/>
   </bookViews>
   <sheets>
     <sheet name="speedTable(yes)" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "LV"}</t>
+          <t xml:space="preserve">{"type":"uint32", "name" : "LV"}</t>
         </r>
       </text>
     </comment>
@@ -531,9 +531,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -544,92 +544,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -659,6 +576,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -674,6 +614,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -682,7 +643,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,13 +697,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,19 +823,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,145 +877,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,31 +892,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -936,20 +939,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -974,16 +974,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -996,10 +996,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1008,133 +1008,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1462,8 +1462,8 @@
   <sheetPr/>
   <dimension ref="A1:AE12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/lota_xin/xls/equipLv.xlsx
+++ b/lota_xin/xls/equipLv.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="21495" windowHeight="8685"/>
   </bookViews>
   <sheets>
-    <sheet name="speedTable(yes)" sheetId="1" r:id="rId1"/>
+    <sheet name="equipLvTable(yes)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -530,10 +530,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -544,39 +544,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -591,7 +560,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,6 +591,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,21 +612,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -636,30 +627,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -675,14 +642,47 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,19 +697,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,13 +859,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,145 +871,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,25 +892,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -919,6 +910,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -939,28 +941,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -996,10 +996,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1008,133 +1008,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1463,7 +1463,7 @@
   <dimension ref="A1:AE12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/lota_xin/xls/equipLv.xlsx
+++ b/lota_xin/xls/equipLv.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="8685"/>
+    <workbookView windowWidth="28695" windowHeight="13605"/>
   </bookViews>
   <sheets>
     <sheet name="equipLvTable(yes)" sheetId="1" r:id="rId1"/>
@@ -422,12 +422,51 @@
         </r>
       </text>
     </comment>
+    <comment ref="AF2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">{"type":"int32", "name" : "Exp"}</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">{"type":"int32", "name" : "UpLvNeed"}</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">{"type":"int32", "name" : "UpLvAll"}</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>xxx</t>
   </si>
@@ -523,6 +562,15 @@
   </si>
   <si>
     <t>Speed10</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>UpLvNeed</t>
+  </si>
+  <si>
+    <t>UpLvAll</t>
   </si>
 </sst>
 </file>
@@ -530,9 +578,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -545,43 +593,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -590,14 +601,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -612,7 +616,107 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,62 +735,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -697,6 +745,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -715,19 +817,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,145 +889,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,6 +936,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -908,8 +995,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -917,11 +1006,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -949,45 +1036,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -996,10 +1044,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1008,16 +1056,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1026,115 +1074,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1460,10 +1508,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AE12"/>
+  <dimension ref="A1:AH12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AF12" sqref="AF12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1476,7 +1524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:34">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1570,8 +1618,17 @@
       <c r="AE2" t="s">
         <v>31</v>
       </c>
+      <c r="AF2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:34">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1665,8 +1722,17 @@
       <c r="AE3">
         <v>28</v>
       </c>
+      <c r="AF3">
+        <v>100</v>
+      </c>
+      <c r="AG3">
+        <v>1000</v>
+      </c>
+      <c r="AH3">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:34">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1760,8 +1826,17 @@
       <c r="AE4">
         <v>30</v>
       </c>
+      <c r="AF4">
+        <v>200</v>
+      </c>
+      <c r="AG4">
+        <v>5000</v>
+      </c>
+      <c r="AH4">
+        <v>6000</v>
+      </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:34">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1855,8 +1930,17 @@
       <c r="AE5">
         <v>32</v>
       </c>
+      <c r="AF5">
+        <v>300</v>
+      </c>
+      <c r="AG5">
+        <v>9000</v>
+      </c>
+      <c r="AH5">
+        <v>15000</v>
+      </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:34">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1950,8 +2034,17 @@
       <c r="AE6">
         <v>34</v>
       </c>
+      <c r="AF6">
+        <v>400</v>
+      </c>
+      <c r="AG6">
+        <v>13000</v>
+      </c>
+      <c r="AH6">
+        <v>28000</v>
+      </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:34">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2045,8 +2138,17 @@
       <c r="AE7">
         <v>36</v>
       </c>
+      <c r="AF7">
+        <v>500</v>
+      </c>
+      <c r="AG7">
+        <v>17000</v>
+      </c>
+      <c r="AH7">
+        <v>45000</v>
+      </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:34">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2140,8 +2242,17 @@
       <c r="AE8">
         <v>38</v>
       </c>
+      <c r="AF8">
+        <v>600</v>
+      </c>
+      <c r="AG8">
+        <v>21000</v>
+      </c>
+      <c r="AH8">
+        <v>66000</v>
+      </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:34">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2235,8 +2346,17 @@
       <c r="AE9">
         <v>40</v>
       </c>
+      <c r="AF9">
+        <v>700</v>
+      </c>
+      <c r="AG9">
+        <v>25000</v>
+      </c>
+      <c r="AH9">
+        <v>91000</v>
+      </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:34">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2330,8 +2450,17 @@
       <c r="AE10">
         <v>42</v>
       </c>
+      <c r="AF10">
+        <v>800</v>
+      </c>
+      <c r="AG10">
+        <v>29000</v>
+      </c>
+      <c r="AH10">
+        <v>120000</v>
+      </c>
     </row>
-    <row r="11" customFormat="1" spans="1:31">
+    <row r="11" customFormat="1" spans="1:34">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2425,8 +2554,17 @@
       <c r="AE11">
         <v>44</v>
       </c>
+      <c r="AF11">
+        <v>900</v>
+      </c>
+      <c r="AG11">
+        <v>33000</v>
+      </c>
+      <c r="AH11">
+        <v>153000</v>
+      </c>
     </row>
-    <row r="12" customFormat="1" spans="1:31">
+    <row r="12" customFormat="1" spans="1:34">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2519,6 +2657,15 @@
       </c>
       <c r="AE12">
         <v>46</v>
+      </c>
+      <c r="AF12">
+        <v>1000</v>
+      </c>
+      <c r="AG12">
+        <v>37000</v>
+      </c>
+      <c r="AH12">
+        <v>190000</v>
       </c>
     </row>
   </sheetData>
